--- a/JNB-Sprint_Management.xlsx
+++ b/JNB-Sprint_Management.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\git\AnimalDoctor24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bworkspace\AnimalDoctor24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1465B55-3926-4654-8CA8-D0079145C093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17D156A-49BC-4084-81C3-7ACFBB23DFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-41388" yWindow="5976" windowWidth="41496" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POC" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="120">
   <si>
     <t>김정윤</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1394,11 +1394,6 @@
     <t>- 비밀번호 변경시 확인코드 붙어넣기 기능 추가 
 - 프론트엔드 국제화 작업 
 - 새로운 비밀번호 설정 팝업 닫기 버튼 추가 등</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">- 홍혜빈씨 정신차려요. 4일째 밀렷어요
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1508,7 +1503,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1518,12 +1513,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1631,7 +1620,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1677,6 +1666,39 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1695,21 +1717,6 @@
     <xf numFmtId="176" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1719,24 +1726,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1761,12 +1750,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1782,9 +1768,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1822,7 +1808,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1928,7 +1914,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2070,7 +2056,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2081,35 +2067,35 @@
   <dimension ref="B1:I29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21:C25"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="39.950000000000003" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="40" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="3"/>
-    <col min="3" max="5" width="30.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="30.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.3046875" customWidth="1"/>
+    <col min="2" max="2" width="10.69140625" style="3"/>
+    <col min="3" max="5" width="30.69140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.07421875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="30.69140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="30" customHeight="1"/>
-    <row r="2" spans="2:9" ht="17.25">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:9" ht="17.5">
+      <c r="B2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="2:9" s="2" customFormat="1" ht="17.25">
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
+    </row>
+    <row r="3" spans="2:9" s="2" customFormat="1" ht="17.5">
       <c r="B3" s="9"/>
       <c r="C3" s="10" t="s">
         <v>0</v>
@@ -2131,17 +2117,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="86.25">
-      <c r="B4" s="21" t="s">
+    <row r="4" spans="2:9" ht="105">
+      <c r="B4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="24" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="5">
@@ -2157,8 +2143,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="120.75">
-      <c r="B5" s="22"/>
+    <row r="5" spans="2:9" ht="122.5">
+      <c r="B5" s="16"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
@@ -2175,17 +2161,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="86.25">
-      <c r="B6" s="21" t="s">
+    <row r="6" spans="2:9" ht="87.5">
+      <c r="B6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="24" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="5">
@@ -2201,11 +2187,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="51.75">
-      <c r="B7" s="22"/>
+    <row r="7" spans="2:9" ht="52.5">
+      <c r="B7" s="16"/>
       <c r="C7" s="25"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
       <c r="F7" s="5">
         <v>45139</v>
       </c>
@@ -2219,11 +2205,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="39.950000000000003" customHeight="1">
-      <c r="B8" s="22"/>
+    <row r="8" spans="2:9" ht="40" customHeight="1">
+      <c r="B8" s="16"/>
       <c r="C8" s="25"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="5">
         <v>45140</v>
       </c>
@@ -2237,11 +2223,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="39.950000000000003" customHeight="1">
-      <c r="B9" s="22"/>
+    <row r="9" spans="2:9" ht="40" customHeight="1">
+      <c r="B9" s="16"/>
       <c r="C9" s="25"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="5">
         <v>45141</v>
       </c>
@@ -2255,11 +2241,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="39.950000000000003" customHeight="1">
-      <c r="B10" s="22"/>
+    <row r="10" spans="2:9" ht="40" customHeight="1">
+      <c r="B10" s="16"/>
       <c r="C10" s="25"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="5">
         <v>45142</v>
       </c>
@@ -2273,17 +2259,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="39.950000000000003" customHeight="1">
-      <c r="B11" s="21" t="s">
+    <row r="11" spans="2:9" ht="40" customHeight="1">
+      <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="24" t="s">
         <v>55</v>
       </c>
       <c r="F11" s="5">
@@ -2299,11 +2285,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="86.25">
-      <c r="B12" s="22"/>
+    <row r="12" spans="2:9" ht="87.5">
+      <c r="B12" s="16"/>
       <c r="C12" s="25"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="5">
         <v>45146</v>
       </c>
@@ -2317,11 +2303,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="39.950000000000003" customHeight="1">
-      <c r="B13" s="22"/>
+    <row r="13" spans="2:9" ht="40" customHeight="1">
+      <c r="B13" s="16"/>
       <c r="C13" s="25"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="5">
         <v>45147</v>
       </c>
@@ -2335,11 +2321,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="62.1" customHeight="1">
-      <c r="B14" s="22"/>
+    <row r="14" spans="2:9" ht="62.15" customHeight="1">
+      <c r="B14" s="16"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="5">
         <v>45148</v>
       </c>
@@ -2353,11 +2339,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="39.950000000000003" customHeight="1">
-      <c r="B15" s="22"/>
+    <row r="15" spans="2:9" ht="40" customHeight="1">
+      <c r="B15" s="16"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="5">
         <v>45149</v>
       </c>
@@ -2365,17 +2351,17 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="2:9" ht="116.1" customHeight="1">
-      <c r="B16" s="21" t="s">
+    <row r="16" spans="2:9" ht="116.15" customHeight="1">
+      <c r="B16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="24" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="5">
@@ -2391,25 +2377,25 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="39.950000000000003" customHeight="1">
-      <c r="B17" s="22"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+    <row r="17" spans="2:9" ht="40" customHeight="1">
+      <c r="B17" s="16"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="5">
         <v>45153</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28"/>
-    </row>
-    <row r="18" spans="2:9" ht="86.25">
-      <c r="B18" s="22"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="34"/>
+    </row>
+    <row r="18" spans="2:9" ht="87.5">
+      <c r="B18" s="16"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="5">
         <v>45154</v>
       </c>
@@ -2423,11 +2409,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="39.950000000000003" customHeight="1">
-      <c r="B19" s="22"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
+    <row r="19" spans="2:9" ht="40" customHeight="1">
+      <c r="B19" s="16"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="5">
         <v>45155</v>
       </c>
@@ -2435,11 +2421,11 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="2:9" ht="39.950000000000003" customHeight="1">
-      <c r="B20" s="22"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+    <row r="20" spans="2:9" ht="40" customHeight="1">
+      <c r="B20" s="16"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="5">
         <v>45156</v>
       </c>
@@ -2447,17 +2433,17 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="2:9" ht="138">
-      <c r="B21" s="21" t="s">
+    <row r="21" spans="2:9" ht="140">
+      <c r="B21" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="24" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="5">
@@ -2474,10 +2460,10 @@
       </c>
     </row>
     <row r="22" spans="2:9" ht="63" customHeight="1">
-      <c r="B22" s="22"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
       <c r="F22" s="5">
         <v>45160</v>
       </c>
@@ -2491,11 +2477,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="71.099999999999994" customHeight="1">
-      <c r="B23" s="22"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
+    <row r="23" spans="2:9" ht="71.150000000000006" customHeight="1">
+      <c r="B23" s="16"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
       <c r="F23" s="5">
         <v>45161</v>
       </c>
@@ -2509,11 +2495,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="69">
-      <c r="B24" s="22"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
+    <row r="24" spans="2:9" ht="70">
+      <c r="B24" s="16"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
       <c r="F24" s="5">
         <v>45162</v>
       </c>
@@ -2527,11 +2513,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="39.950000000000003" customHeight="1">
-      <c r="B25" s="22"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
+    <row r="25" spans="2:9" ht="40" customHeight="1">
+      <c r="B25" s="16"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
       <c r="F25" s="5">
         <v>45163</v>
       </c>
@@ -2545,15 +2531,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="51.75">
-      <c r="B26" s="21" t="s">
+    <row r="26" spans="2:9" ht="52.5">
+      <c r="B26" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="32" t="s">
+      <c r="C26" s="18"/>
+      <c r="D26" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="5">
@@ -2569,11 +2555,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="69">
-      <c r="B27" s="22"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
+    <row r="27" spans="2:9" ht="70">
+      <c r="B27" s="16"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="5">
         <v>45167</v>
       </c>
@@ -2587,11 +2573,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="39.950000000000003" customHeight="1">
-      <c r="B28" s="22"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
+    <row r="28" spans="2:9" ht="40" customHeight="1">
+      <c r="B28" s="16"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
       <c r="F28" s="5">
         <v>45168</v>
       </c>
@@ -2605,11 +2591,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="107.1" customHeight="1">
-      <c r="B29" s="29"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
+    <row r="29" spans="2:9" ht="107.15" customHeight="1">
+      <c r="B29" s="17"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
       <c r="F29" s="5">
         <v>45169</v>
       </c>
@@ -2625,18 +2611,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="E16:E20"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="B21:B25"/>
@@ -2652,6 +2626,18 @@
     <mergeCell ref="D6:D10"/>
     <mergeCell ref="E6:E10"/>
     <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="E16:E20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2663,16 +2649,16 @@
   <dimension ref="B1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" style="3"/>
-    <col min="3" max="4" width="30.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="30.6640625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="4.3046875" customWidth="1"/>
+    <col min="2" max="2" width="10.84375" style="3"/>
+    <col min="3" max="4" width="30.69140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.07421875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="30.69140625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="30" customHeight="1"/>
@@ -2720,9 +2706,7 @@
       <c r="F4" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="43" t="s">
-        <v>120</v>
-      </c>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="2:7" ht="60" customHeight="1">
       <c r="B5" s="39"/>
@@ -2738,7 +2722,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="86.25">
+    <row r="6" spans="2:7" ht="87.5">
       <c r="B6" s="39"/>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
@@ -2786,7 +2770,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="86.25">
+    <row r="9" spans="2:7" ht="87.5">
       <c r="B9" s="39"/>
       <c r="C9" s="41"/>
       <c r="D9" s="41"/>
@@ -2824,7 +2808,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="2:7" ht="90.95" customHeight="1">
+    <row r="12" spans="2:7" ht="91" customHeight="1">
       <c r="B12" s="39" t="s">
         <v>86</v>
       </c>
@@ -2858,7 +2842,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="111.95" customHeight="1">
+    <row r="14" spans="2:7" ht="112" customHeight="1">
       <c r="B14" s="39"/>
       <c r="C14" s="41"/>
       <c r="D14" s="41"/>
@@ -2910,7 +2894,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="83.1" customHeight="1">
+    <row r="18" spans="2:7" ht="83.15" customHeight="1">
       <c r="B18" s="39"/>
       <c r="C18" s="41"/>
       <c r="D18" s="41"/>
@@ -2924,7 +2908,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="86.25">
+    <row r="19" spans="2:7" ht="87.5">
       <c r="B19" s="39"/>
       <c r="C19" s="41"/>
       <c r="D19" s="41"/>

--- a/JNB-Sprint_Management.xlsx
+++ b/JNB-Sprint_Management.xlsx
@@ -1,32 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bworkspace\AnimalDoctor24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\git\AnimalDoctor24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17D156A-49BC-4084-81C3-7ACFBB23DFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3476D4EB-F9B3-4855-973B-953AE69F288A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-41388" yWindow="5976" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="POC" sheetId="1" r:id="rId1"/>
-    <sheet name="POC고도화" sheetId="2" r:id="rId2"/>
+    <sheet name="POC" sheetId="2" r:id="rId1"/>
+    <sheet name="POC_old" sheetId="1" r:id="rId2"/>
+    <sheet name="POC고도화 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="137">
   <si>
     <t>김정윤</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1396,6 +1406,195 @@
 - 새로운 비밀번호 설정 팝업 닫기 버튼 추가 등</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>오재호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- React.js,  Node.js, Spring boot 설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- git repo 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- POC 회의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 로그인 화면
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 비밀번호 찾기 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 회원가입 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 소셜 로그인 / 소셜 회원가입 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- DB 모델링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- Spring security + JWT 토큰 적용
+-  소셜 로그인 적용 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Login Controller, HomeController(임시제목) 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- 개발 환경 세팅
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 홈 화면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- DB모델링 참여
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕 (본문)"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원가입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕 (본문)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>화면</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 홈 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- InfraStructure 작업
+- DB모델링
+- Spring security + JWT
+- 소셜 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1404,7 +1603,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1499,6 +1698,21 @@
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="바탕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1620,7 +1834,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1666,21 +1880,54 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1693,39 +1940,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1750,9 +1964,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1768,9 +1985,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1808,7 +2025,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1914,7 +2131,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2056,46 +2273,370 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C636A91-7DB6-FD4B-8FD7-9CFB963D1F3B}">
+  <dimension ref="B1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="3"/>
+    <col min="3" max="4" width="30.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="30.6640625" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="30" customHeight="1"/>
+    <row r="2" spans="2:7">
+      <c r="B2" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+    </row>
+    <row r="3" spans="2:7" s="2" customFormat="1">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="51" customHeight="1">
+      <c r="B4" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="5">
+        <v>45300</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="51" customHeight="1">
+      <c r="B5" s="39"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="5">
+        <v>45302</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="51" customHeight="1">
+      <c r="B6" s="39"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="5">
+        <v>45305</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="51" customHeight="1">
+      <c r="B7" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="5">
+        <v>45306</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="51" customHeight="1">
+      <c r="B8" s="39"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="5">
+        <v>45307</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="2:7" ht="51" customHeight="1">
+      <c r="B9" s="39"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="5">
+        <v>45308</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="51" customHeight="1">
+      <c r="B10" s="39"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="5">
+        <v>45309</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="2:7" ht="51" customHeight="1">
+      <c r="B11" s="39"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="5">
+        <v>45310</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="2:7" ht="51" customHeight="1">
+      <c r="B12" s="39"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="5">
+        <v>45311</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="2:7" ht="51" customHeight="1">
+      <c r="B13" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="5">
+        <v>45313</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="51" customHeight="1">
+      <c r="B14" s="39"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="5">
+        <v>45314</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="2:7" ht="51" customHeight="1">
+      <c r="B15" s="39"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="5">
+        <v>45315</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="51" customHeight="1">
+      <c r="B16" s="39"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="5">
+        <v>45316</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="2:7" ht="51" customHeight="1">
+      <c r="B17" s="39"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="5">
+        <v>45317</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="51" customHeight="1">
+      <c r="B18" s="39"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="5">
+        <v>45318</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="2:7" ht="51" customHeight="1">
+      <c r="B19" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="5">
+        <v>45320</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="2:7" ht="51" customHeight="1">
+      <c r="B20" s="39"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="5">
+        <v>45321</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="2:7" ht="51" customHeight="1">
+      <c r="B21" s="39"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="5">
+        <v>45322</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="2:7" ht="51" customHeight="1">
+      <c r="B22" s="39"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="5">
+        <v>45323</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="2:7" ht="51" customHeight="1">
+      <c r="B23" s="39"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="5">
+        <v>45324</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="2:7" ht="51" customHeight="1">
+      <c r="B24" s="39"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="5">
+        <v>45325</v>
+      </c>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="D13:D18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="40" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="39.950000000000003" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.3046875" customWidth="1"/>
-    <col min="2" max="2" width="10.69140625" style="3"/>
-    <col min="3" max="5" width="30.69140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.07421875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="30.69140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="3"/>
+    <col min="3" max="5" width="30.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="30.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="30" customHeight="1"/>
-    <row r="2" spans="2:9" ht="17.5">
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="2:9" ht="17.25">
+      <c r="B2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
-    </row>
-    <row r="3" spans="2:9" s="2" customFormat="1" ht="17.5">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="2:9" s="2" customFormat="1" ht="17.25">
       <c r="B3" s="9"/>
       <c r="C3" s="10" t="s">
         <v>0</v>
@@ -2117,17 +2658,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="105">
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="2:9" ht="86.25">
+      <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="5">
@@ -2143,8 +2684,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="122.5">
-      <c r="B5" s="16"/>
+    <row r="5" spans="2:9" ht="120.75">
+      <c r="B5" s="22"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
@@ -2161,17 +2702,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="87.5">
-      <c r="B6" s="15" t="s">
+    <row r="6" spans="2:9" ht="86.25">
+      <c r="B6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="5">
@@ -2187,11 +2728,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="52.5">
-      <c r="B7" s="16"/>
+    <row r="7" spans="2:9" ht="51.75">
+      <c r="B7" s="22"/>
       <c r="C7" s="25"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="5">
         <v>45139</v>
       </c>
@@ -2205,11 +2746,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="40" customHeight="1">
-      <c r="B8" s="16"/>
+    <row r="8" spans="2:9" ht="39.950000000000003" customHeight="1">
+      <c r="B8" s="22"/>
       <c r="C8" s="25"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="5">
         <v>45140</v>
       </c>
@@ -2223,11 +2764,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="40" customHeight="1">
-      <c r="B9" s="16"/>
+    <row r="9" spans="2:9" ht="39.950000000000003" customHeight="1">
+      <c r="B9" s="22"/>
       <c r="C9" s="25"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="5">
         <v>45141</v>
       </c>
@@ -2241,11 +2782,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="40" customHeight="1">
-      <c r="B10" s="16"/>
+    <row r="10" spans="2:9" ht="39.950000000000003" customHeight="1">
+      <c r="B10" s="22"/>
       <c r="C10" s="25"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="5">
         <v>45142</v>
       </c>
@@ -2259,17 +2800,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="40" customHeight="1">
-      <c r="B11" s="15" t="s">
+    <row r="11" spans="2:9" ht="39.950000000000003" customHeight="1">
+      <c r="B11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="23" t="s">
         <v>55</v>
       </c>
       <c r="F11" s="5">
@@ -2285,11 +2826,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="87.5">
-      <c r="B12" s="16"/>
+    <row r="12" spans="2:9" ht="86.25">
+      <c r="B12" s="22"/>
       <c r="C12" s="25"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="5">
         <v>45146</v>
       </c>
@@ -2303,11 +2844,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="40" customHeight="1">
-      <c r="B13" s="16"/>
+    <row r="13" spans="2:9" ht="39.950000000000003" customHeight="1">
+      <c r="B13" s="22"/>
       <c r="C13" s="25"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="5">
         <v>45147</v>
       </c>
@@ -2321,11 +2862,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="62.15" customHeight="1">
-      <c r="B14" s="16"/>
+    <row r="14" spans="2:9" ht="62.1" customHeight="1">
+      <c r="B14" s="22"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="5">
         <v>45148</v>
       </c>
@@ -2339,11 +2880,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="40" customHeight="1">
-      <c r="B15" s="16"/>
+    <row r="15" spans="2:9" ht="39.950000000000003" customHeight="1">
+      <c r="B15" s="22"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="5">
         <v>45149</v>
       </c>
@@ -2351,17 +2892,17 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="2:9" ht="116.15" customHeight="1">
-      <c r="B16" s="15" t="s">
+    <row r="16" spans="2:9" ht="116.1" customHeight="1">
+      <c r="B16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="23" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="5">
@@ -2377,25 +2918,25 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="40" customHeight="1">
-      <c r="B17" s="16"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+    <row r="17" spans="2:9" ht="39.950000000000003" customHeight="1">
+      <c r="B17" s="22"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="5">
         <v>45153</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="33"/>
-      <c r="I17" s="34"/>
-    </row>
-    <row r="18" spans="2:9" ht="87.5">
-      <c r="B18" s="16"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="28"/>
+    </row>
+    <row r="18" spans="2:9" ht="86.25">
+      <c r="B18" s="22"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="5">
         <v>45154</v>
       </c>
@@ -2409,11 +2950,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="40" customHeight="1">
-      <c r="B19" s="16"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+    <row r="19" spans="2:9" ht="39.950000000000003" customHeight="1">
+      <c r="B19" s="22"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="5">
         <v>45155</v>
       </c>
@@ -2421,11 +2962,11 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="2:9" ht="40" customHeight="1">
-      <c r="B20" s="16"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+    <row r="20" spans="2:9" ht="39.950000000000003" customHeight="1">
+      <c r="B20" s="22"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="5">
         <v>45156</v>
       </c>
@@ -2433,17 +2974,17 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="2:9" ht="140">
-      <c r="B21" s="15" t="s">
+    <row r="21" spans="2:9" ht="138">
+      <c r="B21" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="23" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="5">
@@ -2460,10 +3001,10 @@
       </c>
     </row>
     <row r="22" spans="2:9" ht="63" customHeight="1">
-      <c r="B22" s="16"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="5">
         <v>45160</v>
       </c>
@@ -2477,11 +3018,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="71.150000000000006" customHeight="1">
-      <c r="B23" s="16"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
+    <row r="23" spans="2:9" ht="71.099999999999994" customHeight="1">
+      <c r="B23" s="22"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="5">
         <v>45161</v>
       </c>
@@ -2495,11 +3036,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="70">
-      <c r="B24" s="16"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
+    <row r="24" spans="2:9" ht="69">
+      <c r="B24" s="22"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="5">
         <v>45162</v>
       </c>
@@ -2513,11 +3054,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="40" customHeight="1">
-      <c r="B25" s="16"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
+    <row r="25" spans="2:9" ht="39.950000000000003" customHeight="1">
+      <c r="B25" s="22"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="5">
         <v>45163</v>
       </c>
@@ -2531,15 +3072,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="52.5">
-      <c r="B26" s="15" t="s">
+    <row r="26" spans="2:9" ht="51.75">
+      <c r="B26" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="21" t="s">
+      <c r="C26" s="30"/>
+      <c r="D26" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="32" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="5">
@@ -2555,11 +3096,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="70">
-      <c r="B27" s="16"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
+    <row r="27" spans="2:9" ht="69">
+      <c r="B27" s="22"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
       <c r="F27" s="5">
         <v>45167</v>
       </c>
@@ -2573,11 +3114,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="40" customHeight="1">
-      <c r="B28" s="16"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
+    <row r="28" spans="2:9" ht="39.950000000000003" customHeight="1">
+      <c r="B28" s="22"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
       <c r="F28" s="5">
         <v>45168</v>
       </c>
@@ -2591,11 +3132,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="107.15" customHeight="1">
-      <c r="B29" s="17"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
+    <row r="29" spans="2:9" ht="107.1" customHeight="1">
+      <c r="B29" s="29"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
       <c r="F29" s="5">
         <v>45169</v>
       </c>
@@ -2611,6 +3152,18 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="E16:E20"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="B21:B25"/>
@@ -2626,39 +3179,27 @@
     <mergeCell ref="D6:D10"/>
     <mergeCell ref="E6:E10"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="E16:E20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C636A91-7DB6-FD4B-8FD7-9CFB963D1F3B}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FA43C5-0D82-43DC-8E48-C85EAE1BAE27}">
   <dimension ref="B1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="4.3046875" customWidth="1"/>
-    <col min="2" max="2" width="10.84375" style="3"/>
-    <col min="3" max="4" width="30.69140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.07421875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="30.69140625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="3"/>
+    <col min="3" max="4" width="30.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="30.6640625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="30" customHeight="1"/>
@@ -2722,7 +3263,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="87.5">
+    <row r="6" spans="2:7" ht="86.25">
       <c r="B6" s="39"/>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
@@ -2770,7 +3311,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="87.5">
+    <row r="9" spans="2:7" ht="86.25">
       <c r="B9" s="39"/>
       <c r="C9" s="41"/>
       <c r="D9" s="41"/>
@@ -2808,7 +3349,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="2:7" ht="91" customHeight="1">
+    <row r="12" spans="2:7" ht="90.95" customHeight="1">
       <c r="B12" s="39" t="s">
         <v>86</v>
       </c>
@@ -2842,7 +3383,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="112" customHeight="1">
+    <row r="14" spans="2:7" ht="111.95" customHeight="1">
       <c r="B14" s="39"/>
       <c r="C14" s="41"/>
       <c r="D14" s="41"/>
@@ -2894,7 +3435,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="83.15" customHeight="1">
+    <row r="18" spans="2:7" ht="83.1" customHeight="1">
       <c r="B18" s="39"/>
       <c r="C18" s="41"/>
       <c r="D18" s="41"/>
@@ -2908,7 +3449,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="87.5">
+    <row r="19" spans="2:7" ht="86.25">
       <c r="B19" s="39"/>
       <c r="C19" s="41"/>
       <c r="D19" s="41"/>
@@ -2950,20 +3491,20 @@
   <mergeCells count="16">
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="D4:D6"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="C7:C11"/>
     <mergeCell ref="D7:D11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
